--- a/data/trans_dic/P41D_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.415302101943087</v>
+        <v>0.4153021019430871</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2415191173970286</v>
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.107272058433121</v>
+        <v>0.1144838682577938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04197992510424295</v>
+        <v>0.04763888956409253</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.8046888880992075</v>
+        <v>0.8524019569913849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5641025195709347</v>
+        <v>0.5998629064554639</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2290557848543573</v>
+        <v>0.2290557848543574</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1564349253017447</v>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.818736019808209</v>
+        <v>0.8236840182751071</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6109776421462727</v>
+        <v>0.6114889875378117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4807552890043928</v>
+        <v>0.5512646496789118</v>
       </c>
     </row>
     <row r="10">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3056370857670518</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="16">
@@ -893,10 +893,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>734</v>
+        <v>784</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>494</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7">
@@ -908,10 +908,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5510</v>
+        <v>5836</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6642</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="8">
@@ -977,13 +977,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4512</v>
+        <v>4539</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5069</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="12">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="19">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="20">
